--- a/data/xlsx_new/ChineseMedicalNew.xlsx
+++ b/data/xlsx_new/ChineseMedicalNew.xlsx
@@ -5425,7 +5425,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>主治：肠胃生痈（即内痈;二便不通;妇女带下（脐腹冷痛，面色萎黄）;酒赤鼻;小便淋痛;小便尿血;痈肿不穿头;诸疮肿痛</t>
+          <t>主治：肠胃生痈（即内痈，败血腥秽，脐腹冷痛）;二便不通;妇女带下（脐腹冷痛，面色萎黄）;酒赤鼻;小便淋痛;小便尿血;痈肿不穿头;诸疮肿痛</t>
         </is>
       </c>
     </row>
@@ -15442,7 +15442,7 @@
       </c>
       <c r="E579" t="inlineStr">
         <is>
-          <t>主治：补虚劳</t>
+          <t>补虚劳，蒸出来的油，涂汤火伤。很有效。</t>
         </is>
       </c>
     </row>
@@ -15496,7 +15496,7 @@
       </c>
       <c r="E581" t="inlineStr">
         <is>
-          <t>主治：补虚劳，益脾胃</t>
+          <t>补虚劳，益脾胃，尾治小儿软疖，胆治骨鲠在喉。</t>
         </is>
       </c>
     </row>

--- a/data/xlsx_new/ChineseMedicalNew.xlsx
+++ b/data/xlsx_new/ChineseMedicalNew.xlsx
@@ -3141,7 +3141,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>主治：鼻血不止;反胃，食肉即吐;肺热气喘;劳伤尿血;体虚水肿（小便不利，但饮水很多）;吐血不止;温病热哕（胃有伏热，令人胸满，引起气逆，气逆发声称为哕）;五种黄病（黄疸、谷疸、酒疸、女疸、劳疸;小便热淋;竹木入肉</t>
+          <t>主治：鼻血不止;反胃，食肉即吐;肺热气喘;劳伤尿血;体虚水肿（小便不利，但饮水很多）;吐血不止;温病热哕（胃有伏热，令人胸满，引起气逆，气逆发声称为哕）;五种黄病（黄疸、谷疸、酒疸、女疸、劳疸，身体微胖，汗出如黄汁）;小便热淋;竹木入肉</t>
         </is>
       </c>
     </row>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>主治：鼻血不止;补虚明目（肝肾均虚，眼发黑共，或生障翳，迎风流泪）;刀作;喉痹、乳蛾;久患内障;老人淋病（身体发热）;两眼红痛;目翳初起;妊妇热淋;容易小产，用车前子研为末，每服一匙，酒送下;湿气腰痛;小便不通;小便尿血;血淋作痛;阴囊冷痛</t>
+          <t>主治：鼻血不止;补虚明目（肝肾均虚，眼发黑共，或生障翳，迎风流泪）;刀作;喉痹、乳蛾;久患内障;老人淋病（身体发热）;两眼红痛;目翳初起;妊妇热淋;容易小产;湿气腰痛;小便不通;小便尿血;血淋作痛;阴囊冷痛</t>
         </is>
       </c>
     </row>
@@ -5906,7 +5906,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>主治：疮疹疼痛;唇边生疮，年久不愈;服药过量，中毒烦闷;腹中鳖瘕，用蓝叶一升捣烂，加水三升绞汁;惊痫发热;咳嗽气冲（喉里呼吸有声，唾很粘）;天泡热疮;小儿赤痢</t>
+          <t>主治：疮疹疼痛;唇边生疮，年久不愈;服药过量，中毒烦闷;腹中鳖瘕;惊痫发热;咳嗽气冲（喉里呼吸有声，唾很粘）;天泡热疮;小儿赤痢</t>
         </is>
       </c>
     </row>
@@ -7503,7 +7503,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>主治：腹中寒热邪气（用根），脸上黑痣</t>
+          <t>腹中寒热邪气（用根），脸上黑痣，亦利小便，续筋骨，合刀伤，治丹毒，补劳损，益精气。</t>
         </is>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>主治：病后耳聋;产后流血不止;赤白带下;癫阐风疾;肺损吐血用;鼓胀（食积、气积、或血积）;喉痹肿痛;热毒湿疮（遍身生疮，痛而不痒，四肢更我，粘着衣被，不能安睡）;眼长挑针;痈疸</t>
+          <t>主治：病后耳聋;产后流血不止;赤白带下;癫阐风疾;肺损吐血;鼓胀（食积、气积、或血积）;喉痹肿痛;热毒湿疮（遍身生疮，痛而不痒，四肢更我，粘着衣被，不能安睡）;眼长挑针;痈疸</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8406,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>主治：大风疠疾;毒肿初起;风热丹毒;风热隐疹;汗斑癜风;伤寒;烧烟去蚊;水肿，小便不利，用浮萍晒干，研为末;吐血;脱肛;消渴;中小毒病（手足指冷至膝肘）</t>
+          <t>主治：大风疠疾;毒肿初起;风热丹毒;风热隐疹;汗斑癜风;伤寒;烧烟去蚊;水肿，小便不利;吐血;脱肛;消渴;中小毒病（手足指冷至膝肘）</t>
         </is>
       </c>
     </row>
@@ -13040,7 +13040,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>主治：其他如鱼油、禽兽油、菜子油、棉子油、桐油、豆油、石脑油（即石油原油）等所点燃的灯火，都对眼睛有害，不能用来治病</t>
+          <t>其他如鱼油、禽兽油、菜子油、棉子油、桐油、豆油、石脑油（即石油原油）等所点燃的灯火，都对眼睛有害，不能用来治病，小儿的凉风、昏迷、搐搦（抽筋）、窜视（眼珠隐在上眼睑里）等症及头风胀痛等，都可用灯火治疗。主治：病孩仰向后;小儿眼睛翻上不下;小儿不省人事;小儿手紧握、目往上翻;小儿口吐白沫;小儿头风胀痛;小儿外痔肿痛;婴儿初生，因冒寒，气断欲绝;搅肠沙（手足冷，肚子痛，身上出红点）</t>
         </is>
       </c>
     </row>
@@ -13089,7 +13089,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>主治：多年咳嗽不愈;龟甲：阴虚血弱;筋骨疼痛;口、耳生疮;臁疮朽臭;难产催生用龟甲烧存性，研为末，酒送服一匙;年久痔漏;疟疾不止;热气湿痹，腹内急热;下痢及泻血;小儿头疮;虚劳咯血;肿毒初起</t>
+          <t>主治：多年咳嗽不愈;龟甲：阴虚血弱;筋骨疼痛;口、耳生疮;臁疮朽臭;难产催生;年久痔漏;疟疾不止;热气湿痹，腹内急热;下痢及泻血;小儿头疮;虚劳咯血;肿毒初起</t>
         </is>
       </c>
     </row>
@@ -18425,7 +18425,7 @@
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>主治：多年瘰疬;耳出汁用;久咳上气，多年服药无效;久疟不止;咳嗽不止;溃肿排脓;内外障翳;青盲不见;上焦发热，白昼贪眠;五疟不止;小儿惊;小儿夜盲</t>
+          <t>主治：多年瘰疬;耳出汁;久咳上气，多年服药无效;久疟不止;咳嗽不止;溃肿排脓;内外障翳;青盲不见;上焦发热，白昼贪眠;五疟不止;小儿惊;小儿夜盲</t>
         </is>
       </c>
     </row>
@@ -18820,7 +18820,7 @@
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>主治：崩中垂死;鼻血不止;病后失明;补中益气;产后虚弱;产后血崩（或下血不止，心闷面青，身冷欲绝）;大便秘塞;大便下血;跌打伤痛;疔疮恶肿;发背安起;妇女无乳;骨蒸久冷;寒劳虚弱，产后心腹痛;汗出不止;筋骨挛痛;久病虚弱，四肢烦热，不能饮食;烂弦同眼，流泪畏光;瘰疬已破;目病失明;目赤热痛;气逆烦满;青盲内障，用白羊肝一具、黄连一两、熟地黄二两，同捣匀做成丸子，如梧子大;身面浮肿;肾虚耳聋;肾虚精竭;肾虚腰痛;湿热牙疼;时疾阴肿（朋囊及阴茎都因热肿痛）;损伤青肿;胎死不出（或死胎不下）;吐血喘咳;胃虚消渴;五劳七伤;下焦虚冷（脚膝无力，阳痿）;下痢腹痛;下虚尿闲;项下瘰疬;小便膏淋;小儿口疮;小泄多时;心气疼痛;休息痢（一、二年间时作时止，治疗不愈）;虚劳口干;牙疳肿痛;翳膜羞明;月经不断;中风虚弱;壮胃健脾;壮阳益肾</t>
+          <t>主治：崩中垂死;鼻血不止;病后失明;补中益气;产后虚弱;产后血崩（或下血不止，心闷面青，身冷欲绝）;大便秘塞;大便下血;跌打伤痛;疔疮恶肿;发背安起;妇女无乳;骨蒸久冷;寒劳虚弱，产后心腹痛;汗出不止;筋骨挛痛;久病虚弱，四肢烦热，不能饮食;烂弦同眼，流泪畏光;瘰疬已破;目病失明;目赤热痛;气逆烦满;青盲内障;身面浮肿;肾虚耳聋;肾虚精竭;肾虚腰痛;湿热牙疼;时疾阴肿（朋囊及阴茎都因热肿痛）;损伤青肿;胎死不出（或死胎不下）;吐血喘咳;胃虚消渴;五劳七伤;下焦虚冷（脚膝无力，阳痿）;下痢腹痛;下虚尿闲;项下瘰疬;小便膏淋;小儿口疮;小泄多时;心气疼痛;休息痢（一、二年间时作时止，治疗不愈）;虚劳口干;牙疳肿痛;翳膜羞明;月经不断;中风虚弱;壮胃健脾;壮阳益肾</t>
         </is>
       </c>
     </row>
